--- a/ClueGame/data/ClueLayout.xlsx
+++ b/ClueGame/data/ClueLayout.xlsx
@@ -31,6 +31,9 @@
     <t xml:space="preserve">R</t>
   </si>
   <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">LY</t>
   </si>
   <si>
@@ -76,21 +79,18 @@
     <t xml:space="preserve">Light Blue – Test targets</t>
   </si>
   <si>
+    <t xml:space="preserve">Z^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red – Test Occupied</t>
+  </si>
+  <si>
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">Z^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red – Test Occupied</t>
-  </si>
-  <si>
     <t xml:space="preserve">W*</t>
   </si>
   <si>
@@ -103,19 +103,19 @@
     <t xml:space="preserve">Y*</t>
   </si>
   <si>
+    <t xml:space="preserve">Y#</t>
+  </si>
+  <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">S#</t>
   </si>
   <si>
-    <t xml:space="preserve">Y#</t>
+    <t xml:space="preserve">Z&lt;</t>
   </si>
   <si>
     <t xml:space="preserve">S*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z&lt;</t>
   </si>
   <si>
     <t xml:space="preserve">Zv</t>
@@ -196,6 +196,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBBE9F"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
@@ -248,18 +254,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBBE9F"/>
-        <bgColor rgb="FFFFB66C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
@@ -268,6 +262,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,10 +493,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.22265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -618,50 +618,50 @@
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>5</v>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z2" s="0" t="s">
         <v>1</v>
@@ -669,11 +669,11 @@
       <c r="AA2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>6</v>
+      <c r="AD2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -704,50 +704,50 @@
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>5</v>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z3" s="0" t="s">
         <v>1</v>
@@ -755,8 +755,8 @@
       <c r="AA3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>7</v>
+      <c r="AD3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
@@ -790,50 +790,50 @@
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>5</v>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z4" s="0" t="s">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -873,50 +873,50 @@
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>5</v>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z5" s="0" t="s">
         <v>1</v>
@@ -924,8 +924,8 @@
       <c r="AA5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>11</v>
+      <c r="AD5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>2</v>
@@ -959,50 +959,50 @@
       <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>5</v>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>1</v>
@@ -1010,19 +1010,19 @@
       <c r="AA6" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="9" t="s">
-        <v>14</v>
+      <c r="AD6" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1045,50 +1045,50 @@
       <c r="J7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>5</v>
+      <c r="K7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="Z7" s="0" t="s">
         <v>1</v>
@@ -1096,221 +1096,221 @@
       <c r="AA7" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AD7" s="8" t="s">
-        <v>17</v>
+      <c r="AD7" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="B8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="8" t="s">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="13" t="s">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>20</v>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>21</v>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>20</v>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>1</v>
@@ -1324,76 +1324,76 @@
       <c r="R10" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>21</v>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>20</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>1</v>
@@ -1407,76 +1407,76 @@
       <c r="R11" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>21</v>
+      <c r="S11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>20</v>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>1</v>
@@ -1490,76 +1490,76 @@
       <c r="R12" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>21</v>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>20</v>
+      <c r="F13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>1</v>
@@ -1573,76 +1573,76 @@
       <c r="R13" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="7" t="s">
+      <c r="S13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Y13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>21</v>
+      <c r="AA13" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>20</v>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>1</v>
@@ -1656,159 +1656,159 @@
       <c r="R14" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="6" t="s">
+      <c r="S14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>21</v>
+      <c r="Y14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>21</v>
+      <c r="AA15" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>1</v>
@@ -1822,32 +1822,32 @@
       <c r="R16" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>21</v>
+      <c r="S16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,43 +1855,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>20</v>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>1</v>
@@ -1905,115 +1905,115 @@
       <c r="R17" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="S17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>21</v>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,105 +2021,105 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="I19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="14" t="s">
+      <c r="P19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>21</v>
+      <c r="W19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>33</v>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>33</v>
@@ -2127,8 +2127,8 @@
       <c r="I20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>34</v>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>34</v>
@@ -2151,10 +2151,10 @@
       <c r="Q20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="10" t="s">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="T20" s="19" t="s">
@@ -2172,17 +2172,17 @@
       <c r="X20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>36</v>
+      <c r="Y20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
@@ -2210,8 +2210,8 @@
       <c r="I21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>34</v>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>34</v>
@@ -2234,13 +2234,13 @@
       <c r="Q21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>34</v>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="U21" s="19" t="s">
@@ -2258,14 +2258,14 @@
       <c r="Y21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>36</v>
+      <c r="Z21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
@@ -2293,8 +2293,8 @@
       <c r="I22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>34</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>34</v>
@@ -2317,8 +2317,8 @@
       <c r="Q22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="18" t="s">
-        <v>34</v>
+      <c r="R22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="S22" s="19" t="s">
         <v>36</v>
@@ -2344,8 +2344,8 @@
       <c r="Z22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="19" t="s">
-        <v>36</v>
+      <c r="AA22" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2364,7 @@
       <c r="E23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="17" t="s">
@@ -2376,8 +2376,8 @@
       <c r="I23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>34</v>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>34</v>
@@ -2388,7 +2388,7 @@
       <c r="M23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="18" t="s">
@@ -2400,8 +2400,8 @@
       <c r="Q23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="18" t="s">
-        <v>34</v>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S23" s="19" t="s">
         <v>36</v>
@@ -2415,7 +2415,7 @@
       <c r="V23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="7" t="s">
+      <c r="W23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="X23" s="19" t="s">
@@ -2431,7 +2431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
@@ -2459,8 +2459,8 @@
       <c r="I24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>34</v>
+      <c r="J24" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>34</v>
@@ -2483,8 +2483,8 @@
       <c r="Q24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="18" t="s">
-        <v>34</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="19" t="s">
         <v>36</v>
@@ -2514,7 +2514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="I25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>34</v>
+      <c r="J25" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>34</v>
@@ -2566,8 +2566,8 @@
       <c r="Q25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="18" t="s">
-        <v>34</v>
+      <c r="R25" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S25" s="19" t="s">
         <v>36</v>
@@ -2601,10 +2601,10 @@
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2625,8 +2625,8 @@
       <c r="I26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>34</v>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>34</v>
@@ -2649,8 +2649,8 @@
       <c r="Q26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R26" s="18" t="s">
-        <v>34</v>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S26" s="19" t="s">
         <v>36</v>
@@ -2680,6 +2680,8 @@
         <v>36</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
